--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\Office\Gaines rectangulaires\bases\ug16\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792F2A4-83BF-4A46-ACA2-9444497735C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DAF4B2-DA6D-4F11-9CBC-F818E18B5D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>02 31 75 11 65</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1218,7 +1221,7 @@
         <v>45474</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>67</v>
@@ -1272,7 +1275,7 @@
         <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>82</v>

--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DAF4B2-DA6D-4F11-9CBC-F818E18B5D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637BBCA-9490-47AF-988C-B1B671275897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>02 31 75 11 65</t>
-  </si>
-  <si>
-    <t>4.1</t>
   </si>
 </sst>
 </file>
@@ -709,7 +706,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1275,7 +1272,7 @@
         <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>82</v>

--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B637BBCA-9490-47AF-988C-B1B671275897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1FE7E-E484-4A78-86F2-B2E2809CF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>02 31 75 11 65</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1340,7 +1343,7 @@
         <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>82</v>

--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1FE7E-E484-4A78-86F2-B2E2809CF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C1771-8AB0-476A-AB36-7BCD65CC7602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -287,9 +287,6 @@
     <t>lien_maj</t>
   </si>
   <si>
-    <t>https://1drv.ms/f/s!AvIB8GRGeKp3jrNlkHnwTkWTvhCyDg?e=5pRplt</t>
-  </si>
-  <si>
     <t>ZI Est – CS 50561</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
   </si>
   <si>
     <t>02 31 75 11 65</t>
-  </si>
-  <si>
-    <t>4.1</t>
   </si>
 </sst>
 </file>
@@ -709,7 +703,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -813,7 +807,7 @@
         <v>45474</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -849,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
@@ -869,9 +863,7 @@
       <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="14.25">
       <c r="A3">
@@ -881,7 +873,7 @@
         <v>45474</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -917,7 +909,7 @@
         <v>27</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
         <v>28</v>
@@ -937,9 +929,7 @@
       <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="14.25">
       <c r="A4">
@@ -949,7 +939,7 @@
         <v>45474</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -976,16 +966,16 @@
         <v>43</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4">
         <v>76808</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="P4" t="s">
         <v>28</v>
@@ -1005,9 +995,7 @@
       <c r="U4" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="14.25">
       <c r="A5">
@@ -1017,7 +1005,7 @@
         <v>45474</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1044,16 +1032,16 @@
         <v>43</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5">
         <v>76809</v>
       </c>
       <c r="N5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
@@ -1073,9 +1061,7 @@
       <c r="U5" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="14.25">
       <c r="A6">
@@ -1121,7 +1107,7 @@
         <v>27</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
@@ -1141,9 +1127,7 @@
       <c r="U6" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="14.25">
       <c r="A7">
@@ -1189,7 +1173,7 @@
         <v>27</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
         <v>64</v>
@@ -1209,9 +1193,7 @@
       <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="14.25">
       <c r="A8">
@@ -1257,7 +1239,7 @@
         <v>27</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
         <v>28</v>
@@ -1277,9 +1259,7 @@
       <c r="U8" t="s">
         <v>32</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="14.25">
       <c r="A9">
@@ -1325,7 +1305,7 @@
         <v>27</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
         <v>28</v>
@@ -1343,11 +1323,9 @@
         <v>78</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="V9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1C1771-8AB0-476A-AB36-7BCD65CC7602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC80428-2A01-487D-BFD9-78CD85DC84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
+    <workbookView xWindow="11790" yWindow="4335" windowWidth="14190" windowHeight="9300" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
   <sheets>
     <sheet name="dist_users" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -807,7 +807,7 @@
         <v>45474</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -939,7 +939,7 @@
         <v>45474</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>

--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC80428-2A01-487D-BFD9-78CD85DC84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253CA3F6-DABF-4211-B9F4-77C018494C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="4335" windowWidth="14190" windowHeight="9300" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
   <sheets>
     <sheet name="dist_users" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,21 @@
   </si>
   <si>
     <t>02 31 75 11 65</t>
+  </si>
+  <si>
+    <t>FRESNAIS</t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>FRESNAIS Mathis</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>m.fresnais@ouestisol.fr</t>
   </si>
 </sst>
 </file>
@@ -700,10 +715,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC3CA6B-FB29-4380-902E-31E635E78025}">
   <sheetPr codeName="Feuil38"/>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -804,10 +819,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -855,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="S2" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -870,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -921,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="S3" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T3" t="s">
         <v>38</v>
@@ -936,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -987,7 +1002,7 @@
         <v>30</v>
       </c>
       <c r="S4" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T4" t="s">
         <v>45</v>
@@ -1002,61 +1017,61 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>16</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>76809</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>84</v>
+        <v>14791</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" t="s">
-        <v>50</v>
+      <c r="Q5" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R5" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -1068,61 +1083,61 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>16</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="M6">
-        <v>14790</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
+        <v>76809</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
         <v>32</v>
@@ -1134,22 +1149,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -1164,10 +1179,10 @@
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>14791</v>
+        <v>14790</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -1176,19 +1191,19 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="S7" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
         <v>32</v>
@@ -1200,22 +1215,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -1230,10 +1245,10 @@
         <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M8">
-        <v>14790</v>
+        <v>14791</v>
       </c>
       <c r="N8" t="s">
         <v>27</v>
@@ -1242,19 +1257,19 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s">
         <v>32</v>
@@ -1266,22 +1281,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45474</v>
+        <v>45684</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -1311,24 +1326,93 @@
         <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="S9" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s">
         <v>32</v>
       </c>
       <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45684</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>14790</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1">
+        <v>46023</v>
+      </c>
+      <c r="T10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{52926A0C-648F-48FA-9C68-57A6AE4C1DCF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC80428-2A01-487D-BFD9-78CD85DC84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950E4682-FF14-4FBA-BF5E-8C6CE777FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="4335" windowWidth="14190" windowHeight="9300" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
   <sheets>
     <sheet name="dist_users" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,21 @@
   </si>
   <si>
     <t>02 31 75 11 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRESNAIS </t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>FRESNAIS Mathis</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>m.fresnais@ouestisol.fr</t>
   </si>
 </sst>
 </file>
@@ -700,10 +715,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC3CA6B-FB29-4380-902E-31E635E78025}">
   <sheetPr codeName="Feuil38"/>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -804,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -855,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="S2" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -870,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -921,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="S3" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T3" t="s">
         <v>38</v>
@@ -936,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -987,7 +1002,7 @@
         <v>30</v>
       </c>
       <c r="S4" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T4" t="s">
         <v>45</v>
@@ -1002,61 +1017,61 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>16</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>76809</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>84</v>
+        <v>14791</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" t="s">
-        <v>50</v>
+      <c r="Q5" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R5" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -1068,61 +1083,61 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>16</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="M6">
-        <v>14790</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
+        <v>76809</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="U6" t="s">
         <v>32</v>
@@ -1134,22 +1149,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7">
         <v>16</v>
@@ -1164,10 +1179,10 @@
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>14791</v>
+        <v>14790</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
@@ -1176,19 +1191,19 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="S7" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
         <v>32</v>
@@ -1200,22 +1215,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -1230,10 +1245,10 @@
         <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M8">
-        <v>14790</v>
+        <v>14791</v>
       </c>
       <c r="N8" t="s">
         <v>27</v>
@@ -1242,19 +1257,19 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
       </c>
       <c r="S8" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s">
         <v>32</v>
@@ -1266,22 +1281,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45474</v>
+        <v>45696</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -1311,24 +1326,93 @@
         <v>28</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="S9" s="1">
-        <v>45658</v>
+        <v>46023</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s">
         <v>32</v>
       </c>
       <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45696</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>14790</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="1">
+        <v>46023</v>
+      </c>
+      <c r="T10" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q5" r:id="rId1" xr:uid="{3463426B-B927-4144-874B-D4A6866CFF40}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Remote/ug16/Commun/dist_users_ug16.xlsx
+++ b/Remote/ug16/Commun/dist_users_ug16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Commun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\Remote\ug16\Commun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950E4682-FF14-4FBA-BF5E-8C6CE777FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BE5200-4B9F-4ABB-90D4-DFAD89547A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{FB319E84-7C88-461F-9183-805C577E13FE}"/>
   </bookViews>
   <sheets>
     <sheet name="dist_users" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -822,7 +822,7 @@
         <v>45696</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -954,7 +954,7 @@
         <v>45696</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -1152,7 +1152,7 @@
         <v>45696</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -1218,7 +1218,7 @@
         <v>45696</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
